--- a/ProblemSets/Project/Data/GenStackCO2v0.xlsx
+++ b/ProblemSets/Project/Data/GenStackCO2v0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Documents/UChicago/Structural Estimation/Class Repository/StructEst_W19/ProblemSets/Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD991FBB-68F7-564D-A838-41DCD51492F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B120076E-92D0-4D47-BA43-FD603AA87A2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8CAA49AE-8E67-3045-9654-4D4D7E636F31}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{8CAA49AE-8E67-3045-9654-4D4D7E636F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="13">
   <si>
     <t>Capacity</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>gr/lb</t>
+  </si>
+  <si>
+    <t>Csource</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="16948">
+          <cell r="C16948" t="str">
+            <v>23rd and 3rd</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ABB741-C976-824E-A0BC-DDAB5DF973F2}">
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +535,15 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>E2*$J$1*$J$2/1000000</f>
+        <f t="shared" ref="F2:F65" si="0">E2*$J$1*$J$2/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>D2*$J$3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>F2+G2</f>
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -553,8 +570,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>E3*$J$1*$J$2/1000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">D3*$J$3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">F3+G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>4.16027137556945</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -574,7 +605,15 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f>E4*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -595,7 +634,15 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>E5*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -616,7 +663,15 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <f>E6*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -637,7 +692,15 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>E7*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -658,7 +721,15 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f>E8*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -679,7 +750,15 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>E9*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -700,7 +779,15 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f>E10*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -721,7 +808,15 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>E11*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -742,7 +837,15 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>E12*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -763,7 +866,15 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>E13*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -784,7 +895,15 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>E14*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -805,7 +924,15 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f>E15*$J$1*$J$2/1000000</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -826,11 +953,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f>E16*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -847,11 +982,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f>E17*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -868,11 +1011,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>E18*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -889,11 +1040,19 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f>E19*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -910,11 +1069,19 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>E20*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -931,11 +1098,19 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>E21*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -952,11 +1127,19 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>E22*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -973,11 +1156,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f>E23*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -994,11 +1185,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f>E24*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1015,11 +1214,19 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>E25*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1036,11 +1243,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>E26*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1057,11 +1272,19 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>E27*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1078,11 +1301,19 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f>E28*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1099,11 +1330,19 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>E29*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1120,11 +1359,19 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f>E30*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1141,11 +1388,19 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f>E31*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1162,11 +1417,19 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <f>E32*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1183,11 +1446,19 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <f>E33*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1204,11 +1475,19 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>E34*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1225,11 +1504,19 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f>E35*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1246,11 +1533,19 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>E36*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1267,11 +1562,19 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f>E37*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1288,11 +1591,19 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f>E38*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1309,11 +1620,19 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <f>E39*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1330,11 +1649,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f>E40*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1351,11 +1678,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f>E41*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1372,11 +1707,19 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f>E42*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1393,11 +1736,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <f>E43*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1414,11 +1765,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f>E44*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1435,11 +1794,19 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f>E45*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1456,11 +1823,19 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <f>E46*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1477,11 +1852,19 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <f>E47*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1498,11 +1881,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <f>E48*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1519,11 +1910,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>E49*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1540,11 +1939,19 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <f>E50*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1561,11 +1968,19 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <f>E51*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1582,11 +1997,19 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <f>E52*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1603,11 +2026,19 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <f>E53*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1624,11 +2055,19 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <f>E54*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1645,11 +2084,19 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <f>E55*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1666,11 +2113,19 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <f>E56*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1687,11 +2142,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <f>E57*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1708,11 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <f>E58*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1729,11 +2200,19 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f>E59*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1750,11 +2229,19 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <f>E60*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1771,11 +2258,19 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <f>E61*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1792,11 +2287,19 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f>E62*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1813,11 +2316,19 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f>E63*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1834,11 +2345,19 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <f>E64*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1855,11 +2374,19 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <f>E65*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1876,11 +2403,19 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <f>E66*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F66:F129" si="3">E66*$J$1*$J$2/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1897,11 +2432,19 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <f>E67*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="4">D67*$J$3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="5">F67+G67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1918,11 +2461,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <f>E68*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1939,11 +2490,19 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <f>E69*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1960,11 +2519,19 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <f>E70*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1981,11 +2548,19 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <f>E71*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2002,11 +2577,19 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <f>E72*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2023,11 +2606,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <f>E73*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2044,11 +2635,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <f>E74*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2065,11 +2664,19 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <f>E75*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2086,11 +2693,19 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <f>E76*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2107,11 +2722,19 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <f>E77*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2128,11 +2751,19 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <f>E78*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2149,11 +2780,19 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <f>E79*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2170,11 +2809,19 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <f>E80*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2191,11 +2838,19 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <f>E81*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2212,11 +2867,19 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <f>E82*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2233,11 +2896,19 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f>E83*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2254,11 +2925,19 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <f>E84*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2275,11 +2954,19 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <f>E85*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2296,11 +2983,19 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <f>E86*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2317,11 +3012,19 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <f>E87*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2338,11 +3041,19 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <f>E88*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2359,11 +3070,19 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <f>E89*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2380,11 +3099,19 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <f>E90*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2401,11 +3128,19 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <f>E91*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2422,11 +3157,19 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <f>E92*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2443,11 +3186,19 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <f>E93*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2464,11 +3215,19 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <f>E94*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2485,11 +3244,19 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <f>E95*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2506,11 +3273,19 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <f>E96*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2527,11 +3302,19 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <f>E97*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2548,11 +3331,19 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <f>E98*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2569,11 +3360,19 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f>E99*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2590,11 +3389,19 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <f>E100*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2611,11 +3418,19 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <f>E101*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2632,11 +3447,19 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <f>E102*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2653,11 +3476,19 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <f>E103*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2674,11 +3505,19 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <f>E104*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2695,11 +3534,19 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <f>E105*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2716,11 +3563,19 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f>E106*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2737,11 +3592,19 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <f>E107*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2758,11 +3621,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <f>E108*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2779,11 +3650,19 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f>E109*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2800,11 +3679,19 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <f>E110*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2821,11 +3708,19 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <f>E111*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2842,11 +3737,19 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f>E112*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2863,11 +3766,19 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <f>E113*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2884,11 +3795,19 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <f>E114*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2905,11 +3824,19 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f>E115*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2926,11 +3853,19 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f>E116*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2947,11 +3882,19 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f>E117*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2968,11 +3911,19 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <f>E118*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2989,11 +3940,19 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <f>E119*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3010,11 +3969,19 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <f>E120*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3031,11 +3998,19 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <f>E121*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3052,11 +4027,19 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <f>E122*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3073,11 +4056,19 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <f>E123*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3094,11 +4085,19 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <f>E124*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3115,11 +4114,19 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <f>E125*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3136,11 +4143,19 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <f>E126*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3157,11 +4172,19 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <f>E127*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3178,11 +4201,19 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <f>E128*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3199,11 +4230,19 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <f>E129*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3220,11 +4259,19 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <f>E130*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F130:F193" si="6">E130*$J$1*$J$2/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3241,11 +4288,19 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <f>E131*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="7">D131*$J$3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="8">F131+G131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3262,11 +4317,19 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <f>E132*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3283,11 +4346,19 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <f>E133*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3304,11 +4375,19 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <f>E134*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3325,11 +4404,19 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <f>E135*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3346,11 +4433,19 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <f>E136*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3367,11 +4462,19 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <f>E137*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3388,11 +4491,19 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <f>E138*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3409,11 +4520,19 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <f>E139*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3430,11 +4549,19 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <f>E140*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3451,11 +4578,19 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <f>E141*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3472,11 +4607,19 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <f>E142*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3493,11 +4636,19 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <f>E143*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3514,11 +4665,19 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <f>E144*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3535,11 +4694,19 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <f>E145*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3556,11 +4723,19 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <f>E146*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3577,11 +4752,19 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <f>E147*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3598,11 +4781,19 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <f>E148*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3619,11 +4810,19 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <f>E149*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3640,11 +4839,19 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <f>E150*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3661,11 +4868,19 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <f>E151*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3682,11 +4897,19 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <f>E152*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3703,11 +4926,19 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <f>E153*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3724,11 +4955,19 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <f>E154*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3745,11 +4984,19 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <f>E155*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3766,11 +5013,19 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <f>E156*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3787,11 +5042,19 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <f>E157*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3808,11 +5071,19 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <f>E158*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3829,11 +5100,19 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <f>E159*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3850,11 +5129,19 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <f>E160*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3871,11 +5158,19 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <f>E161*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3892,11 +5187,19 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <f>E162*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3913,11 +5216,19 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <f>E163*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3934,11 +5245,19 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <f>E164*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3955,11 +5274,19 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <f>E165*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3976,11 +5303,19 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <f>E166*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3997,11 +5332,19 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <f>E167*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4018,11 +5361,19 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <f>E168*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4039,11 +5390,19 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <f>E169*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4060,11 +5419,19 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <f>E170*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4081,11 +5448,19 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <f>E171*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4102,11 +5477,19 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <f>E172*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4123,11 +5506,19 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <f>E173*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4144,11 +5535,19 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <f>E174*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4165,11 +5564,19 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <f>E175*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4186,11 +5593,19 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <f>E176*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4207,11 +5622,19 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <f>E177*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4228,11 +5651,19 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <f>E178*$J$1*$J$2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4249,11 +5680,23 @@
         <v>327.43400000000003</v>
       </c>
       <c r="F179">
-        <f>E179*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>5.3467719454080003</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <f t="shared" si="7"/>
+        <v>11.653919469348528</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="8"/>
+        <v>17.000691414756528</v>
+      </c>
+      <c r="I179" t="str">
+        <f>IF(H179&lt;H178,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4270,11 +5713,23 @@
         <v>375.69099999999997</v>
       </c>
       <c r="F180">
-        <f>E180*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>6.1347755545919993</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <f t="shared" si="7"/>
+        <v>13.371457075595956</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="8"/>
+        <v>19.506232630187956</v>
+      </c>
+      <c r="I180" t="str">
+        <f t="shared" ref="I180:I243" si="9">IF(H180&lt;H179,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4291,11 +5746,23 @@
         <v>593.88800000000003</v>
       </c>
       <c r="F181">
-        <f>E181*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>9.6977824450560011</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181">
+        <f t="shared" si="7"/>
+        <v>21.137445679248255</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="8"/>
+        <v>30.835228124304258</v>
+      </c>
+      <c r="I181" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4312,11 +5779,23 @@
         <v>616.96</v>
       </c>
       <c r="F182">
-        <f>E182*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>10.07453233152</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G182">
+        <f>D182*$J$3/1000</f>
+        <v>21.371948753698739</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="8"/>
+        <v>31.446481085218739</v>
+      </c>
+      <c r="I182" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4333,13 +5812,25 @@
         <v>638.79499999999996</v>
       </c>
       <c r="F183">
-        <f>E183*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>10.43108285904</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183">
+        <f t="shared" si="7"/>
+        <v>22.735757215474614</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="8"/>
+        <v>33.16684007451461</v>
+      </c>
+      <c r="I183" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -4354,13 +5845,25 @@
         <v>652.23299999999995</v>
       </c>
       <c r="F184">
-        <f>E184*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>10.650516153696</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184">
+        <f t="shared" si="7"/>
+        <v>23.214035016804793</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="8"/>
+        <v>33.864551170500789</v>
+      </c>
+      <c r="I184" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -4375,13 +5878,25 @@
         <v>653.83399999999995</v>
       </c>
       <c r="F185">
-        <f>E185*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>10.676659382207999</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185">
+        <f t="shared" si="7"/>
+        <v>23.270826792019054</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="8"/>
+        <v>33.947486174227052</v>
+      </c>
+      <c r="I185" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -4396,13 +5911,25 @@
         <v>656.85299999999995</v>
       </c>
       <c r="F186">
-        <f>E186*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>10.725957575135999</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <f t="shared" si="7"/>
+        <v>23.379005485397304</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="8"/>
+        <v>34.104963060533301</v>
+      </c>
+      <c r="I186" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -4417,13 +5944,25 @@
         <v>661.07600000000002</v>
       </c>
       <c r="F187">
-        <f>E187*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>10.794916259712</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <f t="shared" si="7"/>
+        <v>23.507177613947452</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="8"/>
+        <v>34.302093873659452</v>
+      </c>
+      <c r="I187" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -4438,13 +5977,25 @@
         <v>662.64200000000005</v>
       </c>
       <c r="F188">
-        <f>E188*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>10.820487962304</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188">
+        <f t="shared" si="7"/>
+        <v>23.584496036256169</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="8"/>
+        <v>34.404983998560169</v>
+      </c>
+      <c r="I188" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -4459,13 +6010,25 @@
         <v>677.73500000000001</v>
       </c>
       <c r="F189">
-        <f>E189*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>11.066946268320001</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189">
+        <f t="shared" si="7"/>
+        <v>24.12167417549286</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="8"/>
+        <v>35.188620443812859</v>
+      </c>
+      <c r="I189" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -4480,13 +6043,25 @@
         <v>689.64200000000005</v>
       </c>
       <c r="F190">
-        <f>E190*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>11.261379386304</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190">
+        <f t="shared" si="7"/>
+        <v>24.076525951402576</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="8"/>
+        <v>35.337905337706573</v>
+      </c>
+      <c r="I190" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -4501,13 +6076,25 @@
         <v>707.35199999999998</v>
       </c>
       <c r="F191">
-        <f>E191*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>11.550571501823999</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G191">
+        <f t="shared" si="7"/>
+        <v>24.770260424546578</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="8"/>
+        <v>36.320831926370573</v>
+      </c>
+      <c r="I191" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -4522,13 +6109,25 @@
         <v>708.04899999999998</v>
       </c>
       <c r="F192">
-        <f>E192*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>11.561953032288001</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G192">
+        <f t="shared" si="7"/>
+        <v>24.783005068509993</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="8"/>
+        <v>36.344958100797996</v>
+      </c>
+      <c r="I192" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -4543,13 +6142,25 @@
         <v>728.13699999999994</v>
       </c>
       <c r="F193">
-        <f>E193*$J$1*$J$2/1000000</f>
+        <f t="shared" si="6"/>
         <v>11.889976251743999</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <f t="shared" si="7"/>
+        <v>23.765478704148929</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="8"/>
+        <v>35.655454955892928</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -4564,13 +6175,25 @@
         <v>732.16600000000005</v>
       </c>
       <c r="F194">
-        <f>E194*$J$1*$J$2/1000000</f>
+        <f t="shared" ref="F194:F257" si="10">E194*$J$1*$J$2/1000000</f>
         <v>11.955767049792001</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194">
+        <f t="shared" si="7"/>
+        <v>25.627494593034427</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="8"/>
+        <v>37.583261642826429</v>
+      </c>
+      <c r="I194" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -4585,13 +6208,25 @@
         <v>733.72</v>
       </c>
       <c r="F195">
-        <f>E195*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>11.981142800640001</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <f t="shared" ref="G195:G258" si="11">D195*$J$3/1000</f>
+        <v>25.684620206993156</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H258" si="12">F195+G195</f>
+        <v>37.66576300763316</v>
+      </c>
+      <c r="I195" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -4606,11 +6241,23 @@
         <v>737.83500000000004</v>
       </c>
       <c r="F196">
-        <f>E196*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>12.04833791952</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G196">
+        <f t="shared" si="11"/>
+        <v>23.189867237200005</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="12"/>
+        <v>35.238205156720007</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4627,11 +6274,23 @@
         <v>799.745</v>
       </c>
       <c r="F197">
-        <f>E197*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>13.059285625439999</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G197">
+        <f t="shared" si="11"/>
+        <v>28.464225371143169</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="12"/>
+        <v>41.52351099658317</v>
+      </c>
+      <c r="I197" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4648,11 +6307,23 @@
         <v>816.59299999999996</v>
       </c>
       <c r="F198">
-        <f>E198*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>13.334401874015999</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <f t="shared" si="11"/>
+        <v>28.579512100678315</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="12"/>
+        <v>41.91391397469431</v>
+      </c>
+      <c r="I198" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4669,11 +6340,23 @@
         <v>827.66700000000003</v>
       </c>
       <c r="F199">
-        <f>E199*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>13.515232675104002</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199">
+        <f t="shared" si="11"/>
+        <v>28.970221244826099</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="12"/>
+        <v>42.485453919930102</v>
+      </c>
+      <c r="I199" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4690,11 +6373,31 @@
         <v>840.27200000000005</v>
       </c>
       <c r="F200">
-        <f>E200*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>13.721063652864</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <f t="shared" si="11"/>
+        <v>29.41134471694431</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="12"/>
+        <v>43.13240836980831</v>
+      </c>
+      <c r="I200" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J200">
+        <f>G201</f>
+        <v>30.085856994272881</v>
+      </c>
+      <c r="K200">
+        <f>H201</f>
+        <v>44.121570160064884</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4711,13 +6414,37 @@
         <v>859.54100000000005</v>
       </c>
       <c r="F201">
-        <f>E201*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>14.035713165792002</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G201">
+        <f t="shared" si="11"/>
+        <v>30.085856994272881</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="12"/>
+        <v>44.121570160064884</v>
+      </c>
+      <c r="I201" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J201">
+        <f>G201-G179</f>
+        <v>18.431937524924351</v>
+      </c>
+      <c r="K201">
+        <f>H201-H179</f>
+        <v>27.120878745308357</v>
+      </c>
+      <c r="M201">
+        <f>H201-G201</f>
+        <v>14.035713165792004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -4732,13 +6459,29 @@
         <v>862.50400000000002</v>
       </c>
       <c r="F202">
-        <f>E202*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>14.084096917247999</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G202">
+        <f t="shared" si="11"/>
+        <v>30.189667072588374</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="12"/>
+        <v>44.273763989836375</v>
+      </c>
+      <c r="I202" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M202">
+        <f>K201-J201</f>
+        <v>8.688941220384006</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -4753,11 +6496,23 @@
         <v>863.60299999999995</v>
       </c>
       <c r="F203">
-        <f>E203*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>14.102042831136</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <f t="shared" si="11"/>
+        <v>30.147209404048564</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="12"/>
+        <v>44.249252235184564</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4774,11 +6529,23 @@
         <v>867.60799999999995</v>
       </c>
       <c r="F204">
-        <f>E204*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>14.167441725695999</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204">
+        <f t="shared" si="11"/>
+        <v>30.369787816365569</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="12"/>
+        <v>44.537229542061567</v>
+      </c>
+      <c r="I204" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4795,11 +6562,23 @@
         <v>891.82500000000005</v>
       </c>
       <c r="F205">
-        <f>E205*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>14.5628886744</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G205">
+        <f t="shared" si="11"/>
+        <v>31.147166464643792</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="12"/>
+        <v>45.710055139043789</v>
+      </c>
+      <c r="I205" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4816,11 +6595,23 @@
         <v>916.31100000000004</v>
       </c>
       <c r="F206">
-        <f>E206*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>14.962728208032001</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G206">
+        <f t="shared" si="11"/>
+        <v>31.951398488128699</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="12"/>
+        <v>46.9141266961607</v>
+      </c>
+      <c r="I206" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4837,11 +6628,23 @@
         <v>926.35900000000004</v>
       </c>
       <c r="F207">
-        <f>E207*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>15.126805135008</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207">
+        <f t="shared" si="11"/>
+        <v>32.30300613768609</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="12"/>
+        <v>47.429811272694089</v>
+      </c>
+      <c r="I207" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4858,13 +6661,25 @@
         <v>970.44500000000005</v>
       </c>
       <c r="F208">
-        <f>E208*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>15.84669918384</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G208">
+        <f t="shared" si="11"/>
+        <v>33.813006237114472</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="12"/>
+        <v>49.659705420954474</v>
+      </c>
+      <c r="I208" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -4879,13 +6694,25 @@
         <v>972.51300000000003</v>
       </c>
       <c r="F209">
-        <f>E209*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>15.880468201055999</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G209">
+        <f t="shared" si="11"/>
+        <v>37.091197580585607</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="12"/>
+        <v>52.971665781641605</v>
+      </c>
+      <c r="I209" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -4900,13 +6727,25 @@
         <v>999.91399999999999</v>
       </c>
       <c r="F210">
-        <f>E210*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>16.327907679168</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G210">
+        <f t="shared" si="11"/>
+        <v>34.992708555330438</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="12"/>
+        <v>51.320616234498438</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -4921,13 +6760,25 @@
         <v>1001.468</v>
       </c>
       <c r="F211">
-        <f>E211*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>16.353283430015999</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G211">
+        <f t="shared" si="11"/>
+        <v>35.053490223425001</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="12"/>
+        <v>51.406773653441</v>
+      </c>
+      <c r="I211" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -4942,13 +6793,25 @@
         <v>1009.048</v>
       </c>
       <c r="F212">
-        <f>E212*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>16.477059614976</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G212">
+        <f t="shared" si="11"/>
+        <v>35.320521982194023</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="12"/>
+        <v>51.797581597170023</v>
+      </c>
+      <c r="I212" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -4963,13 +6826,25 @@
         <v>1029.94</v>
       </c>
       <c r="F213">
-        <f>E213*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>16.818211601280002</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213">
+        <f t="shared" si="11"/>
+        <v>36.049402949488737</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="12"/>
+        <v>52.867614550768735</v>
+      </c>
+      <c r="I213" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -4984,13 +6859,25 @@
         <v>1031.633</v>
       </c>
       <c r="F214">
-        <f>E214*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>16.845857126496</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G214">
+        <f t="shared" si="11"/>
+        <v>36.109064310597709</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="12"/>
+        <v>52.954921437093709</v>
+      </c>
+      <c r="I214" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -5005,11 +6892,23 @@
         <v>1046.896</v>
       </c>
       <c r="F215">
-        <f>E215*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.095091415552002</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G215">
+        <f t="shared" si="11"/>
+        <v>36.643254681851666</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="12"/>
+        <v>53.738346097403664</v>
+      </c>
+      <c r="I215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5026,13 +6925,25 @@
         <v>1061.1510000000001</v>
       </c>
       <c r="F216">
-        <f>E216*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.327865758111997</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G216">
+        <f t="shared" si="11"/>
+        <v>37.139367651604054</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="12"/>
+        <v>54.467233409716052</v>
+      </c>
+      <c r="I216" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -5047,13 +6958,25 @@
         <v>1061.9179999999999</v>
       </c>
       <c r="F217">
-        <f>E217*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.340390340415997</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217">
+        <f t="shared" si="11"/>
+        <v>37.79539612133194</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="12"/>
+        <v>55.135786461747941</v>
+      </c>
+      <c r="I217" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -5068,13 +6991,25 @@
         <v>1067.942</v>
       </c>
       <c r="F218">
-        <f>E218*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.438758115904001</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G218">
+        <f t="shared" si="11"/>
+        <v>37.381073567155248</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="12"/>
+        <v>54.819831683059249</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -5089,13 +7024,25 @@
         <v>1072.6379999999999</v>
       </c>
       <c r="F219">
-        <f>E219*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.515440565055997</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G219">
+        <f t="shared" si="11"/>
+        <v>37.543875719809577</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="12"/>
+        <v>55.059316284865574</v>
+      </c>
+      <c r="I219" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -5110,11 +7057,23 @@
         <v>1083.002</v>
       </c>
       <c r="F220">
-        <f>E220*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.684677554623999</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G220">
+        <f t="shared" si="11"/>
+        <v>37.705746303607953</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="12"/>
+        <v>55.390423858231955</v>
+      </c>
+      <c r="I220" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5131,11 +7090,23 @@
         <v>1086.501</v>
       </c>
       <c r="F221">
-        <f>E221*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.741813817312</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G221">
+        <f t="shared" si="11"/>
+        <v>38.030683998791773</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="12"/>
+        <v>55.772497816103773</v>
+      </c>
+      <c r="I221" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5152,11 +7123,23 @@
         <v>1089.4659999999999</v>
       </c>
       <c r="F222">
-        <f>E222*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.790230227391998</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G222">
+        <f t="shared" si="11"/>
+        <v>38.14515550644456</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="12"/>
+        <v>55.935385733836554</v>
+      </c>
+      <c r="I222" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5173,11 +7156,23 @@
         <v>1099.636</v>
       </c>
       <c r="F223">
-        <f>E223*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>17.956299330432003</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G223">
+        <f t="shared" si="11"/>
+        <v>38.489374908848603</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="12"/>
+        <v>56.445674239280606</v>
+      </c>
+      <c r="I223" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5194,11 +7189,23 @@
         <v>1107.6559999999999</v>
       </c>
       <c r="F224">
-        <f>E224*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>18.087260412671998</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G224">
+        <f t="shared" si="11"/>
+        <v>38.767243890528164</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="12"/>
+        <v>56.854504303200159</v>
+      </c>
+      <c r="I224" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5215,11 +7222,23 @@
         <v>1112.92</v>
       </c>
       <c r="F225">
-        <f>E225*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>18.173217911040002</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G225">
+        <f t="shared" si="11"/>
+        <v>38.952970750861184</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="12"/>
+        <v>57.126188661901182</v>
+      </c>
+      <c r="I225" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5236,11 +7255,23 @@
         <v>1120.0640000000001</v>
       </c>
       <c r="F226">
-        <f>E226*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>18.289874515968002</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G226">
+        <f t="shared" si="11"/>
+        <v>39.205029065912171</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="12"/>
+        <v>57.494903581880173</v>
+      </c>
+      <c r="I226" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5257,13 +7288,25 @@
         <v>1160.508</v>
       </c>
       <c r="F227">
-        <f>E227*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>18.950297210496</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G227">
+        <f t="shared" si="11"/>
+        <v>40.620681112137191</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="12"/>
+        <v>59.570978322633195</v>
+      </c>
+      <c r="I227" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -5278,13 +7321,25 @@
         <v>1192.7860000000001</v>
       </c>
       <c r="F228">
-        <f>E228*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>19.477374743232001</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G228">
+        <f t="shared" si="11"/>
+        <v>41.748986593045373</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="12"/>
+        <v>61.226361336277378</v>
+      </c>
+      <c r="I228" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -5299,13 +7354,25 @@
         <v>1193.248</v>
       </c>
       <c r="F229">
-        <f>E229*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>19.484918885376</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G229">
+        <f t="shared" si="11"/>
+        <v>41.706322601082647</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="12"/>
+        <v>61.191241486458651</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -5320,13 +7387,25 @@
         <v>1197.912</v>
       </c>
       <c r="F230">
-        <f>E230*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>19.561078796543999</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G230">
+        <f t="shared" si="11"/>
+        <v>42.242989466904156</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="12"/>
+        <v>61.804068263448158</v>
+      </c>
+      <c r="I230" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -5341,13 +7420,25 @@
         <v>1200.3040000000001</v>
       </c>
       <c r="F231">
-        <f>E231*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>19.600138510848002</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G231">
+        <f t="shared" si="11"/>
+        <v>41.867839377441179</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="12"/>
+        <v>61.467977888289184</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -5362,11 +7453,23 @@
         <v>1208.1369999999999</v>
       </c>
       <c r="F232">
-        <f>E232*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>19.728046011743999</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G232">
+        <f t="shared" si="11"/>
+        <v>42.192343277726444</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="12"/>
+        <v>61.920389289470442</v>
+      </c>
+      <c r="I232" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5383,11 +7486,23 @@
         <v>1234.6849999999999</v>
       </c>
       <c r="F233">
-        <f>E233*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>20.161556586719996</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G233">
+        <f t="shared" si="11"/>
+        <v>43.217326274069016</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="12"/>
+        <v>63.378882860789012</v>
+      </c>
+      <c r="I233" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5404,11 +7519,23 @@
         <v>1253.808</v>
       </c>
       <c r="F234">
-        <f>E234*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>20.473822020096001</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G234">
+        <f t="shared" si="11"/>
+        <v>43.87309096287666</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="12"/>
+        <v>64.346912982972668</v>
+      </c>
+      <c r="I234" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5425,11 +7552,23 @@
         <v>1255.3520000000001</v>
       </c>
       <c r="F235">
-        <f>E235*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>20.499034477824001</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G235">
+        <f t="shared" si="11"/>
+        <v>43.922401409039345</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="12"/>
+        <v>64.42143588686335</v>
+      </c>
+      <c r="I235" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5446,11 +7585,23 @@
         <v>1265.3230000000001</v>
       </c>
       <c r="F236">
-        <f>E236*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>20.661854047776004</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G236">
+        <f t="shared" si="11"/>
+        <v>44.216317285176878</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="12"/>
+        <v>64.878171332952888</v>
+      </c>
+      <c r="I236" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5467,11 +7618,23 @@
         <v>1270.1949999999999</v>
       </c>
       <c r="F237">
-        <f>E237*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>20.741410455840001</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237">
+        <f t="shared" si="11"/>
+        <v>44.459858008352299</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="12"/>
+        <v>65.201268464192296</v>
+      </c>
+      <c r="I237" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5488,11 +7651,23 @@
         <v>1270.7940000000001</v>
       </c>
       <c r="F238">
-        <f>E238*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>20.751191713727998</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G238">
+        <f t="shared" si="11"/>
+        <v>44.478036294409407</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="12"/>
+        <v>65.229228008137397</v>
+      </c>
+      <c r="I238" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5509,13 +7684,25 @@
         <v>1272.97</v>
       </c>
       <c r="F239">
-        <f>E239*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>20.786724296639999</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G239">
+        <f t="shared" si="11"/>
+        <v>44.556785669070436</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="12"/>
+        <v>65.343509965710439</v>
+      </c>
+      <c r="I239" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -5530,13 +7717,25 @@
         <v>1294.663</v>
       </c>
       <c r="F240">
-        <f>E240*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>21.140956061856002</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G240">
+        <f t="shared" si="11"/>
+        <v>45.316505145828593</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="12"/>
+        <v>66.457461207684588</v>
+      </c>
+      <c r="I240" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -5551,11 +7750,23 @@
         <v>1300.8409999999999</v>
       </c>
       <c r="F241">
-        <f>E241*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>21.241838551392</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G241">
+        <f t="shared" si="11"/>
+        <v>44.77040316230989</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="12"/>
+        <v>66.012241713701883</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5572,13 +7783,25 @@
         <v>1330.9839999999999</v>
       </c>
       <c r="F242">
-        <f>E242*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>21.734053003008</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G242">
+        <f t="shared" si="11"/>
+        <v>45.88391307575742</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="12"/>
+        <v>67.61796607876542</v>
+      </c>
+      <c r="I242" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
@@ -5593,13 +7816,25 @@
         <v>1341.79</v>
       </c>
       <c r="F243">
-        <f>E243*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>21.910507548480002</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G243">
+        <f t="shared" si="11"/>
+        <v>46.966462951669996</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="12"/>
+        <v>68.876970500149994</v>
+      </c>
+      <c r="I243" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>2</v>
@@ -5614,13 +7849,25 @@
         <v>1375.289</v>
       </c>
       <c r="F244">
-        <f>E244*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>22.457523171167999</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G244">
+        <f t="shared" si="11"/>
+        <v>48.139236759261557</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="12"/>
+        <v>70.596759930429556</v>
+      </c>
+      <c r="I244" t="str">
+        <f t="shared" ref="I244:I260" si="13">IF(H244&lt;H243,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
@@ -5635,13 +7882,25 @@
         <v>1375.4829999999999</v>
       </c>
       <c r="F245">
-        <f>E245*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>22.460691057696</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245">
+        <f t="shared" si="11"/>
+        <v>48.146133467532799</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="12"/>
+        <v>70.606824525228802</v>
+      </c>
+      <c r="I245" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
@@ -5656,13 +7915,25 @@
         <v>1419.6669999999999</v>
       </c>
       <c r="F246">
-        <f>E246*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>23.182185379103995</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G246">
+        <f t="shared" si="11"/>
+        <v>47.48435642024134</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="12"/>
+        <v>70.666541799345339</v>
+      </c>
+      <c r="I246" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -5677,11 +7948,23 @@
         <v>1421.0029999999999</v>
       </c>
       <c r="F247">
-        <f>E247*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>23.204001339935999</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G247">
+        <f t="shared" si="11"/>
+        <v>46.5245112291108</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="12"/>
+        <v>69.728512569046799</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5698,13 +7981,25 @@
         <v>1429.3430000000001</v>
       </c>
       <c r="F248">
-        <f>E248*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>23.340187802016001</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G248">
+        <f t="shared" si="11"/>
+        <v>49.251088800437259</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="12"/>
+        <v>72.591276602453263</v>
+      </c>
+      <c r="I248" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -5719,13 +8014,25 @@
         <v>1460.0840000000001</v>
       </c>
       <c r="F249">
-        <f>E249*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>23.842167182208001</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <f t="shared" si="11"/>
+        <v>51.047096863260762</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="12"/>
+        <v>74.889264045468764</v>
+      </c>
+      <c r="I249" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>2</v>
@@ -5740,13 +8047,25 @@
         <v>1470.7090000000001</v>
       </c>
       <c r="F250">
-        <f>E250*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>24.015666122208003</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G250">
+        <f t="shared" si="11"/>
+        <v>50.962399099273163</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="12"/>
+        <v>74.97806522148116</v>
+      </c>
+      <c r="I250" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -5761,13 +8080,25 @@
         <v>1691.3030000000001</v>
       </c>
       <c r="F251">
-        <f>E251*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>27.617814373536003</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G251">
+        <f t="shared" si="11"/>
+        <v>60.196243448091153</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="12"/>
+        <v>87.814057821627159</v>
+      </c>
+      <c r="I251" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -5782,13 +8113,25 @@
         <v>1793.972</v>
       </c>
       <c r="F252">
-        <f>E252*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>29.294328507263998</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G252">
+        <f t="shared" si="11"/>
+        <v>62.349129196590226</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="12"/>
+        <v>91.643457703854224</v>
+      </c>
+      <c r="I252" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -5803,13 +8146,25 @@
         <v>1844.1320000000001</v>
       </c>
       <c r="F253">
-        <f>E253*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>30.113406797184002</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G253">
+        <f t="shared" si="11"/>
+        <v>65.635629919437505</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="12"/>
+        <v>95.749036716621504</v>
+      </c>
+      <c r="I253" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
@@ -5824,13 +8179,25 @@
         <v>2108.9670000000001</v>
       </c>
       <c r="F254">
-        <f>E254*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>34.437980140703999</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G254">
+        <f t="shared" si="11"/>
+        <v>54.763112939304968</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="12"/>
+        <v>89.201093080008974</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -5845,13 +8212,25 @@
         <v>2441.7060000000001</v>
       </c>
       <c r="F255">
-        <f>E255*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>39.871379086271993</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G255">
+        <f t="shared" si="11"/>
+        <v>62.195725002053557</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="12"/>
+        <v>102.06710408832555</v>
+      </c>
+      <c r="I255" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -5866,13 +8245,25 @@
         <v>2505.6759999999999</v>
       </c>
       <c r="F256">
-        <f>E256*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>40.915965174911996</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G256">
+        <f t="shared" si="11"/>
+        <v>86.83203164327486</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="12"/>
+        <v>127.74799681818686</v>
+      </c>
+      <c r="I256" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -5887,11 +8278,23 @@
         <v>2678.3980000000001</v>
       </c>
       <c r="F257">
-        <f>E257*$J$1*$J$2/1000000</f>
+        <f t="shared" si="10"/>
         <v>43.736396602176001</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G257">
+        <f t="shared" si="11"/>
+        <v>68.790362576258858</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="12"/>
+        <v>112.52675917843486</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5908,11 +8311,23 @@
         <v>3507.74</v>
       </c>
       <c r="F258">
-        <f>E258*$J$1*$J$2/1000000</f>
+        <f t="shared" ref="F258:F321" si="14">E258*$J$1*$J$2/1000000</f>
         <v>57.278980874879991</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G258">
+        <f t="shared" si="11"/>
+        <v>121.33529233225627</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="12"/>
+        <v>178.61427320713625</v>
+      </c>
+      <c r="I258" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5929,11 +8344,23 @@
         <v>5255.7539999999999</v>
       </c>
       <c r="F259">
-        <f>E259*$J$1*$J$2/1000000</f>
+        <f t="shared" si="14"/>
         <v>85.822846861247996</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G259">
+        <f t="shared" ref="G259:G260" si="15">D259*$J$3/1000</f>
+        <v>131.88790132726305</v>
+      </c>
+      <c r="H259">
+        <f t="shared" ref="H259:H260" si="16">F259+G259</f>
+        <v>217.71074818851105</v>
+      </c>
+      <c r="I259" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5950,8 +8377,26 @@
         <v>6904.5280000000002</v>
       </c>
       <c r="F260">
-        <f>E260*$J$1*$J$2/1000000</f>
+        <f t="shared" si="14"/>
         <v>112.746191924736</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="15"/>
+        <v>233.66043777737772</v>
+      </c>
+      <c r="H260">
+        <f t="shared" si="16"/>
+        <v>346.40662970211372</v>
+      </c>
+      <c r="I260" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <f>AVERAGE(D179:D260)</f>
+        <v>10172.688602288181</v>
       </c>
     </row>
   </sheetData>
